--- a/결혼.xlsx
+++ b/결혼.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CrazyHomePC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\Public_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D22C6C0D-6B29-49FA-89BD-E9A7854F3400}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5C330B2C-3CF8-4727-B92D-31629582302A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="23580" windowHeight="10035" activeTab="1" xr2:uid="{B40C5E9C-4B4F-4983-B03C-533BE084DEF8}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="23580" windowHeight="10035" xr2:uid="{B40C5E9C-4B4F-4983-B03C-533BE084DEF8}"/>
   </bookViews>
   <sheets>
     <sheet name="자본금" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="257">
   <si>
     <t>idx</t>
   </si>
@@ -999,6 +999,34 @@
   </si>
   <si>
     <t>▷ 예산 지급 경로와 비율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부족 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결혼 총 비용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅁ총 비용과 필요 대출액</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1571,10 +1599,14 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="98">
+  <dxfs count="100">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1586,21 +1618,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1620,25 +1638,14 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1650,21 +1657,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -1718,1835 +1710,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3756,7 +1919,1918 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="8" tint="0.39994506668294322"/>
         </left>
@@ -4754,6 +4828,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3714-42E3-B631-E9DFEB3B8848}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -7085,9 +7164,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="925510" cy="336246"/>
     <xdr:sp macro="" textlink="">
@@ -7103,7 +7182,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3181350" y="2809875"/>
+          <a:off x="3000375" y="3019425"/>
           <a:ext cx="925510" cy="336246"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7184,33 +7263,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{878A593C-9E25-4E0A-9E60-110D4BF40B16}" name="표1" displayName="표1" ref="B4:H18" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96" tableBorderDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{878A593C-9E25-4E0A-9E60-110D4BF40B16}" name="표1" displayName="표1" ref="B4:H18" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98" tableBorderDxfId="97">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{231FD0AE-9928-4BE3-9B66-84203D841CA6}" name="idx" dataDxfId="94">
+    <tableColumn id="1" xr3:uid="{231FD0AE-9928-4BE3-9B66-84203D841CA6}" name="idx" dataDxfId="96">
       <calculatedColumnFormula>ROW()-ROW(표1[[#Headers],[idx]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8FC83E17-6CA6-4CC0-BC88-AB6F2D351043}" name="이름" dataDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{BE6B9234-3D54-474F-9AB2-F6BE762EA776}" name="위치" dataDxfId="92"/>
-    <tableColumn id="7" xr3:uid="{747CC4A8-372B-4342-9352-CAA7AE3D282A}" name="가용여부" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{E4AF1FD4-3287-48D8-9847-C59A3AFFE087}" name="금액(원)" dataDxfId="77" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" xr3:uid="{0F10D7B0-4C31-4730-998E-543CAE3C1590}" name="금액(한글)" dataDxfId="75" dataCellStyle="쉼표 [0]">
+    <tableColumn id="2" xr3:uid="{8FC83E17-6CA6-4CC0-BC88-AB6F2D351043}" name="이름" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{BE6B9234-3D54-474F-9AB2-F6BE762EA776}" name="위치" dataDxfId="94"/>
+    <tableColumn id="7" xr3:uid="{747CC4A8-372B-4342-9352-CAA7AE3D282A}" name="가용여부" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{E4AF1FD4-3287-48D8-9847-C59A3AFFE087}" name="금액(원)" dataDxfId="92" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" xr3:uid="{0F10D7B0-4C31-4730-998E-543CAE3C1590}" name="금액(한글)" dataDxfId="91" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>NUMBERSTRING(표1[금액(원)], 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CE544A7-FFD1-4586-B9CB-3D60754C7243}" name="비고" dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{7CE544A7-FFD1-4586-B9CB-3D60754C7243}" name="비고" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBB3ECE3-1C5F-42F2-B23D-9984115EC527}" name="표2" displayName="표2" ref="J4:M10" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" tableBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBB3ECE3-1C5F-42F2-B23D-9984115EC527}" name="표2" displayName="표2" ref="J4:M10" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" tableBorderDxfId="87">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C4844300-5422-4E84-9D85-013AFBECEDE5}" name="이름" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{6A138BCA-7CDB-411C-991C-F3B92E00AC7D}" name="가용여부" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{76AAB6EB-3D92-4278-ABA7-FC324CB6D154}" name="총 금액(원)" dataDxfId="42" dataCellStyle="쉼표 [0]">
+    <tableColumn id="1" xr3:uid="{C4844300-5422-4E84-9D85-013AFBECEDE5}" name="이름" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{6A138BCA-7CDB-411C-991C-F3B92E00AC7D}" name="가용여부" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{76AAB6EB-3D92-4278-ABA7-FC324CB6D154}" name="총 금액(원)" dataDxfId="84" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUMIFS(표1[금액(원)], 표1[이름], 표2[[#This Row],[이름]], 표1[가용여부], 표2[가용여부])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{75BC5CDD-0BFA-4DB7-917E-144CEE56C2D9}" name="총 금액(한글)" dataDxfId="41">
+    <tableColumn id="3" xr3:uid="{75BC5CDD-0BFA-4DB7-917E-144CEE56C2D9}" name="총 금액(한글)" dataDxfId="83">
       <calculatedColumnFormula>NUMBERSTRING(표2[총 금액(원)], 1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7219,41 +7298,54 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{85DBC65D-7DEB-48CC-BFC0-703D919AD896}" name="표3" displayName="표3" ref="Q5:Y69" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25" totalsRowBorderDxfId="23">
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E5C709EC-0E47-4EDD-9AB4-82AF8B5411A5}" name="idx" dataDxfId="21" totalsRowDxfId="22">
-      <calculatedColumnFormula>ROW()-ROW(표3[[#Headers],[idx]])</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{59316683-D540-4B71-8C68-1AAC6BAC5767}" name="표9" displayName="표9" ref="S4:U6" totalsRowShown="0" headerRowDxfId="0">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00BC295E-CC30-4AF7-9AB7-3433A89E1651}" name="항목" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{397BCC64-A072-4788-9672-6E63DD41D596}" name="비용"/>
+    <tableColumn id="3" xr3:uid="{A38573F1-5D5B-48B3-95D4-4DE309B6DF96}" name="비고" dataDxfId="1">
+      <calculatedColumnFormula>NUMBERSTRING(T5, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{032192ED-0766-44F7-B9BA-201AC15667F2}" name="대분류" dataDxfId="19" totalsRowDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{676152BA-B8A3-4CCD-B6FB-17F2F86B68B1}" name="중분류" dataDxfId="2" totalsRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{AB904A36-93D6-4381-8BDD-5B9EB9190422}" name="소분류" dataDxfId="0" totalsRowDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{3A5F6F4C-1C18-4BF9-92C1-2B1EFE1DEF4C}" name="지불자" dataDxfId="1" totalsRowDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{915B80BF-58AD-4453-B3DE-E2466B56274D}" name="지불여부" dataDxfId="14" totalsRowDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{B9CAB3FE-4A1D-470C-AC88-A96041EA3259}" name="예산" dataDxfId="13" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" xr3:uid="{F8B507DA-F643-41E8-964C-BE9288CF0913}" name="예산(한글)" dataDxfId="11" totalsRowDxfId="12" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>NUMBERSTRING(표3[[#This Row],[예산]], 1)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{02EB1C3D-28FF-414C-B4B1-8E06ADD3C327}" name="내용" dataDxfId="9" totalsRowDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{46D64D37-4340-44DE-9947-46BB555F9F82}" name="표6" displayName="표6" ref="B5:E16" totalsRowCount="1" headerRowDxfId="48" dataDxfId="74" totalsRowDxfId="65" headerRowBorderDxfId="71" tableBorderDxfId="72" totalsRowBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{85DBC65D-7DEB-48CC-BFC0-703D919AD896}" name="표3" displayName="표3" ref="Q5:Y69" totalsRowShown="0" headerRowDxfId="82" dataDxfId="80" headerRowBorderDxfId="81" tableBorderDxfId="79" totalsRowBorderDxfId="78">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{E5C709EC-0E47-4EDD-9AB4-82AF8B5411A5}" name="idx" dataDxfId="77" totalsRowDxfId="76">
+      <calculatedColumnFormula>ROW()-ROW(표3[[#Headers],[idx]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{032192ED-0766-44F7-B9BA-201AC15667F2}" name="대분류" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{676152BA-B8A3-4CCD-B6FB-17F2F86B68B1}" name="중분류" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{AB904A36-93D6-4381-8BDD-5B9EB9190422}" name="소분류" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{3A5F6F4C-1C18-4BF9-92C1-2B1EFE1DEF4C}" name="지불자" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="9" xr3:uid="{915B80BF-58AD-4453-B3DE-E2466B56274D}" name="지불여부" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{B9CAB3FE-4A1D-470C-AC88-A96041EA3259}" name="예산" dataDxfId="65" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" xr3:uid="{F8B507DA-F643-41E8-964C-BE9288CF0913}" name="예산(한글)" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>NUMBERSTRING(표3[[#This Row],[예산]], 1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{02EB1C3D-28FF-414C-B4B1-8E06ADD3C327}" name="내용" dataDxfId="62" totalsRowDxfId="61"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{46D64D37-4340-44DE-9947-46BB555F9F82}" name="표6" displayName="표6" ref="B5:E16" totalsRowCount="1" headerRowDxfId="60" dataDxfId="58" totalsRowDxfId="56" headerRowBorderDxfId="59" tableBorderDxfId="57" totalsRowBorderDxfId="55">
   <sortState ref="B6:E15">
     <sortCondition descending="1" ref="D5:D15"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{76637792-AEA0-4A51-A431-6B2908A4CD02}" name="idx" dataDxfId="69" totalsRowDxfId="52">
+    <tableColumn id="1" xr3:uid="{76637792-AEA0-4A51-A431-6B2908A4CD02}" name="idx" dataDxfId="54" totalsRowDxfId="53">
       <calculatedColumnFormula>ROW()-ROW(표6[[#Headers],[idx]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CBA5D722-BC58-4EED-8F39-A53E43AB0527}" name="분류" totalsRowLabel="합계" dataDxfId="68" totalsRowDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{5C4D2FED-9706-4B2B-BAC0-67356BD4A62F}" name="예산" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="51" dataCellStyle="쉼표 [0]" totalsRowCellStyle="쉼표 [0]">
+    <tableColumn id="2" xr3:uid="{CBA5D722-BC58-4EED-8F39-A53E43AB0527}" name="분류" totalsRowLabel="합계" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{5C4D2FED-9706-4B2B-BAC0-67356BD4A62F}" name="예산" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="쉼표 [0]" totalsRowCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUMIF(표3[대분류], 표6[[#This Row],[분류]], 표3[예산])</calculatedColumnFormula>
       <totalsRowFormula>SUM(D6:D15)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{51AAEA17-AE4D-4DDC-B8F9-A9C789F0838D}" name="예산(한글)" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="50">
+    <tableColumn id="4" xr3:uid="{51AAEA17-AE4D-4DDC-B8F9-A9C789F0838D}" name="예산(한글)" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula>NUMBERSTRING(표6[[#This Row],[예산]], 1)</calculatedColumnFormula>
       <totalsRowFormula>IF(표6[[#Totals],[예산]]=표8[[#Totals],[예산]],"-","합산 오류")</totalsRowFormula>
     </tableColumn>
@@ -7262,21 +7354,21 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2F0ECE26-4A17-4B75-8688-7740EE3CBE32}" name="표8" displayName="표8" ref="G5:J11" totalsRowCount="1" headerRowDxfId="60" dataDxfId="73" headerRowBorderDxfId="63" tableBorderDxfId="64" totalsRowBorderDxfId="62">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2F0ECE26-4A17-4B75-8688-7740EE3CBE32}" name="표8" displayName="표8" ref="G5:J11" totalsRowCount="1" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43" totalsRowBorderDxfId="42">
   <sortState ref="G6:J10">
     <sortCondition descending="1" ref="I5:I10"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{540A0581-ADA6-4004-85E0-D092716FAAE9}" name="idx" dataDxfId="59" totalsRowDxfId="56">
+    <tableColumn id="1" xr3:uid="{540A0581-ADA6-4004-85E0-D092716FAAE9}" name="idx" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>ROW()-ROW(표8[[#Headers],[idx]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6359FBD5-DBFF-43F8-9ABA-51B2290BD522}" name="분류" totalsRowLabel="합계" dataDxfId="57" totalsRowDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{4519376C-A553-4890-A233-321D99656061}" name="예산" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="54" dataCellStyle="쉼표 [0]" totalsRowCellStyle="쉼표 [0]">
+    <tableColumn id="2" xr3:uid="{6359FBD5-DBFF-43F8-9ABA-51B2290BD522}" name="분류" totalsRowLabel="합계" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{4519376C-A553-4890-A233-321D99656061}" name="예산" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="쉼표 [0]" totalsRowCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUMIF(표3[지불자], 표8[[#This Row],[분류]], 표3[예산])</calculatedColumnFormula>
       <totalsRowFormula>SUM(I6:I10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C1E9D029-AFEC-45E5-A63A-E49E3977A4C1}" name="예산(한글)" dataDxfId="61" totalsRowDxfId="53">
+    <tableColumn id="4" xr3:uid="{C1E9D029-AFEC-45E5-A63A-E49E3977A4C1}" name="예산(한글)" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>NUMBERSTRING(표8[[#This Row],[예산]], 1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7284,18 +7376,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3139AED1-8792-481D-8922-3AE5314E74E9}" name="표10" displayName="표10" ref="L5:O8" totalsRowCount="1" headerRowDxfId="34" dataDxfId="40" headerRowBorderDxfId="38" tableBorderDxfId="39" totalsRowBorderDxfId="37">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3139AED1-8792-481D-8922-3AE5314E74E9}" name="표10" displayName="표10" ref="L5:O8" totalsRowCount="1" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2E0C6E11-36A5-43C0-BB22-D9D60123C0F3}" name="idx" dataDxfId="36" totalsRowDxfId="31">
+    <tableColumn id="1" xr3:uid="{2E0C6E11-36A5-43C0-BB22-D9D60123C0F3}" name="idx" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>ROW()-ROW(표10[[#Headers],[idx]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{289915BB-85F7-4ADC-BBBD-62418B45B79F}" name="분류" dataDxfId="33" totalsRowDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{B95ADE38-4448-456D-AA72-2449147BE063}" name="예산" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="29" dataCellStyle="쉼표 [0]" totalsRowCellStyle="쉼표 [0]">
+    <tableColumn id="2" xr3:uid="{289915BB-85F7-4ADC-BBBD-62418B45B79F}" name="분류" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{B95ADE38-4448-456D-AA72-2449147BE063}" name="예산" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="쉼표 [0]" totalsRowCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUMIF(표3[지불여부], 표10[[#This Row],[분류]], 표3[예산])</calculatedColumnFormula>
       <totalsRowFormula>SUM(N6:N7)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F74F4C14-33A7-4B28-BF3E-F4EED536BA9A}" name="예산(한글)" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="28">
+    <tableColumn id="4" xr3:uid="{F74F4C14-33A7-4B28-BF3E-F4EED536BA9A}" name="예산(한글)" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>NUMBERSTRING(표10[[#This Row],[예산]], 1)</calculatedColumnFormula>
       <totalsRowFormula>IF(표8[[#Totals],[예산]] = 표10[[#Totals],[예산]], "-", "합산 오류")</totalsRowFormula>
     </tableColumn>
@@ -7304,25 +7396,25 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{783D69C3-4D7E-43E3-A085-29A40661E7B3}" name="표1_5" displayName="표1_5" ref="B3:G22" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{783D69C3-4D7E-43E3-A085-29A40661E7B3}" name="표1_5" displayName="표1_5" ref="B3:G22" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FB59FD60-0D31-46F9-A305-748A5BDC1C01}" name="항목" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{493D2591-3A6F-4007-A71D-B29E0EB70B18}" name="담당" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{7454D39F-20F3-44B1-BC0F-FC859792CDFC}" name="대분류" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{F5433CDD-586B-4B78-8D02-97356F4CEEA5}" name="분류" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{111249A5-1F95-43EF-B024-E7FC81A817DC}" name="금액(원)" dataDxfId="83" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" xr3:uid="{2E7249F5-A239-4EC6-AECD-10B3A526009A}" name="비고" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{FB59FD60-0D31-46F9-A305-748A5BDC1C01}" name="항목" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{493D2591-3A6F-4007-A71D-B29E0EB70B18}" name="담당" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{7454D39F-20F3-44B1-BC0F-FC859792CDFC}" name="대분류" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{F5433CDD-586B-4B78-8D02-97356F4CEEA5}" name="분류" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{111249A5-1F95-43EF-B024-E7FC81A817DC}" name="금액(원)" dataDxfId="14" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" xr3:uid="{2E7249F5-A239-4EC6-AECD-10B3A526009A}" name="비고" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FCEBFF01-4944-44F1-ABC7-0B61B21A510A}" name="표4" displayName="표4" ref="I3:J5" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FCEBFF01-4944-44F1-ABC7-0B61B21A510A}" name="표4" displayName="표4" ref="I3:J5" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{76F44294-16A0-4FBA-A30D-6AE72BCA53D0}" name="항목" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{2AA03351-874D-4094-9D5A-8EF5AE708506}" name="금액(원)" dataDxfId="78" dataCellStyle="쉼표 [0]">
+    <tableColumn id="1" xr3:uid="{76F44294-16A0-4FBA-A30D-6AE72BCA53D0}" name="항목" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{2AA03351-874D-4094-9D5A-8EF5AE708506}" name="금액(원)" dataDxfId="9" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUMIFS((표1_5[금액(원)]), 표1_5[분류],표4[[#This Row],[항목]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7627,10 +7719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA464AF-5E49-48C0-A399-26E95F617486}">
-  <dimension ref="B2:R18"/>
+  <dimension ref="B2:U18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7651,10 +7743,14 @@
     <col min="15" max="15" width="13.25" style="6" customWidth="1"/>
     <col min="16" max="16" width="8" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="6"/>
+    <col min="18" max="18" width="3.625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.125" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
@@ -7675,9 +7771,14 @@
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="8"/>
+      <c r="S2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="8"/>
     </row>
-    <row r="3" spans="2:18" ht="3" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" ht="3" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
@@ -7720,8 +7821,17 @@
       <c r="Q4" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="S4" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>254</v>
+      </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>1</v>
@@ -7770,8 +7880,15 @@
         <f>NUMBERSTRING(O5, 1)</f>
         <v>삼억오천만</v>
       </c>
+      <c r="S5" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="T5" s="16">
+        <f>표6[[#Totals],[예산]]</f>
+        <v>461592100</v>
+      </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>2</v>
@@ -7809,8 +7926,15 @@
         <f>NUMBERSTRING(표2[총 금액(원)], 1)</f>
         <v>오백오십만</v>
       </c>
+      <c r="S6" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="T6" s="22">
+        <f>T5-O5</f>
+        <v>111592100</v>
+      </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>3</v>
@@ -7849,7 +7973,7 @@
         <v>사천육백만</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21" ht="27" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>4</v>
@@ -7888,7 +8012,7 @@
         <v>이백오십만</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" ht="27" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>5</v>
@@ -7926,8 +8050,9 @@
         <f>NUMBERSTRING(표2[총 금액(원)], 1)</f>
         <v>일억오백만</v>
       </c>
+      <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>6</v>
@@ -7965,8 +8090,9 @@
         <f>NUMBERSTRING(표2[총 금액(원)], 1)</f>
         <v>육천만</v>
       </c>
+      <c r="Q10" s="22"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>7</v>
@@ -7990,10 +8116,8 @@
       <c r="H11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="Q11" s="16"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>8</v>
@@ -8017,9 +8141,10 @@
       <c r="H12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R12" s="31"/>
+      <c r="O12" s="16"/>
+      <c r="Q12" s="16"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>9</v>
@@ -8043,9 +8168,9 @@
       <c r="H13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="22"/>
+      <c r="R13" s="31"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>10</v>
@@ -8069,8 +8194,9 @@
       <c r="H14" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="O14" s="22"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>11</v>
@@ -8095,7 +8221,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>12</v>
@@ -8144,7 +8270,6 @@
       <c r="H17" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Q17" s="16"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
@@ -8170,6 +8295,7 @@
       <c r="H18" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="Q18" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8180,9 +8306,10 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8191,8 +8318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AADAAA-C3F9-4C36-A7BB-AD2815D694F8}">
   <dimension ref="B2:AF69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -8201,7 +8328,7 @@
     <col min="2" max="2" width="3.875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.625" style="6" customWidth="1"/>
     <col min="7" max="7" width="3.875" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.75" style="6" bestFit="1" customWidth="1"/>
@@ -8209,9 +8336,9 @@
     <col min="10" max="10" width="25.75" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.625" style="6" customWidth="1"/>
     <col min="12" max="12" width="3.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.25" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.625" style="6" customWidth="1"/>
     <col min="17" max="17" width="3.875" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" style="6" bestFit="1" customWidth="1"/>
@@ -9343,6 +9470,9 @@
     <row r="26" spans="7:32" ht="16.5" x14ac:dyDescent="0.3">
       <c r="G26"/>
       <c r="H26"/>
+      <c r="L26" s="6" t="s">
+        <v>250</v>
+      </c>
       <c r="Q26" s="48">
         <f>ROW()-ROW(표3[[#Headers],[idx]])</f>
         <v>21</v>

--- a/결혼.xlsx
+++ b/결혼.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\Public_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5C330B2C-3CF8-4727-B92D-31629582302A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F40496A6-95E0-440F-910B-7D5AA13A013C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="900" windowWidth="23580" windowHeight="10035" xr2:uid="{B40C5E9C-4B4F-4983-B03C-533BE084DEF8}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="256">
   <si>
     <t>idx</t>
   </si>
@@ -1015,10 +1015,6 @@
   </si>
   <si>
     <t>비용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1599,65 +1595,7 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="100">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="99">
     <dxf>
       <border>
         <bottom style="thin">
@@ -3599,6 +3537,45 @@
           <color theme="8" tint="0.39994506668294322"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -7263,33 +7240,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{878A593C-9E25-4E0A-9E60-110D4BF40B16}" name="표1" displayName="표1" ref="B4:H18" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98" tableBorderDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{878A593C-9E25-4E0A-9E60-110D4BF40B16}" name="표1" displayName="표1" ref="B4:H18" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97" tableBorderDxfId="96">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{231FD0AE-9928-4BE3-9B66-84203D841CA6}" name="idx" dataDxfId="96">
+    <tableColumn id="1" xr3:uid="{231FD0AE-9928-4BE3-9B66-84203D841CA6}" name="idx" dataDxfId="95">
       <calculatedColumnFormula>ROW()-ROW(표1[[#Headers],[idx]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8FC83E17-6CA6-4CC0-BC88-AB6F2D351043}" name="이름" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{BE6B9234-3D54-474F-9AB2-F6BE762EA776}" name="위치" dataDxfId="94"/>
-    <tableColumn id="7" xr3:uid="{747CC4A8-372B-4342-9352-CAA7AE3D282A}" name="가용여부" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{E4AF1FD4-3287-48D8-9847-C59A3AFFE087}" name="금액(원)" dataDxfId="92" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" xr3:uid="{0F10D7B0-4C31-4730-998E-543CAE3C1590}" name="금액(한글)" dataDxfId="91" dataCellStyle="쉼표 [0]">
+    <tableColumn id="2" xr3:uid="{8FC83E17-6CA6-4CC0-BC88-AB6F2D351043}" name="이름" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{BE6B9234-3D54-474F-9AB2-F6BE762EA776}" name="위치" dataDxfId="93"/>
+    <tableColumn id="7" xr3:uid="{747CC4A8-372B-4342-9352-CAA7AE3D282A}" name="가용여부" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{E4AF1FD4-3287-48D8-9847-C59A3AFFE087}" name="금액(원)" dataDxfId="91" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" xr3:uid="{0F10D7B0-4C31-4730-998E-543CAE3C1590}" name="금액(한글)" dataDxfId="90" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>NUMBERSTRING(표1[금액(원)], 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CE544A7-FFD1-4586-B9CB-3D60754C7243}" name="비고" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{7CE544A7-FFD1-4586-B9CB-3D60754C7243}" name="비고" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBB3ECE3-1C5F-42F2-B23D-9984115EC527}" name="표2" displayName="표2" ref="J4:M10" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" tableBorderDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBB3ECE3-1C5F-42F2-B23D-9984115EC527}" name="표2" displayName="표2" ref="J4:M10" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87" tableBorderDxfId="86">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C4844300-5422-4E84-9D85-013AFBECEDE5}" name="이름" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{6A138BCA-7CDB-411C-991C-F3B92E00AC7D}" name="가용여부" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{76AAB6EB-3D92-4278-ABA7-FC324CB6D154}" name="총 금액(원)" dataDxfId="84" dataCellStyle="쉼표 [0]">
+    <tableColumn id="1" xr3:uid="{C4844300-5422-4E84-9D85-013AFBECEDE5}" name="이름" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{6A138BCA-7CDB-411C-991C-F3B92E00AC7D}" name="가용여부" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{76AAB6EB-3D92-4278-ABA7-FC324CB6D154}" name="총 금액(원)" dataDxfId="83" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUMIFS(표1[금액(원)], 표1[이름], 표2[[#This Row],[이름]], 표1[가용여부], 표2[가용여부])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{75BC5CDD-0BFA-4DB7-917E-144CEE56C2D9}" name="총 금액(한글)" dataDxfId="83">
+    <tableColumn id="3" xr3:uid="{75BC5CDD-0BFA-4DB7-917E-144CEE56C2D9}" name="총 금액(한글)" dataDxfId="82">
       <calculatedColumnFormula>NUMBERSTRING(표2[총 금액(원)], 1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7298,54 +7275,51 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{59316683-D540-4B71-8C68-1AAC6BAC5767}" name="표9" displayName="표9" ref="S4:U6" totalsRowShown="0" headerRowDxfId="0">
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00BC295E-CC30-4AF7-9AB7-3433A89E1651}" name="항목" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{59316683-D540-4B71-8C68-1AAC6BAC5767}" name="표9" displayName="표9" ref="S4:T6" totalsRowShown="0" headerRowDxfId="81">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00BC295E-CC30-4AF7-9AB7-3433A89E1651}" name="항목" dataDxfId="80"/>
     <tableColumn id="2" xr3:uid="{397BCC64-A072-4788-9672-6E63DD41D596}" name="비용"/>
-    <tableColumn id="3" xr3:uid="{A38573F1-5D5B-48B3-95D4-4DE309B6DF96}" name="비고" dataDxfId="1">
-      <calculatedColumnFormula>NUMBERSTRING(T5, 1)</calculatedColumnFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{85DBC65D-7DEB-48CC-BFC0-703D919AD896}" name="표3" displayName="표3" ref="Q5:Y69" totalsRowShown="0" headerRowDxfId="82" dataDxfId="80" headerRowBorderDxfId="81" tableBorderDxfId="79" totalsRowBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{85DBC65D-7DEB-48CC-BFC0-703D919AD896}" name="표3" displayName="표3" ref="Q5:Y69" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E5C709EC-0E47-4EDD-9AB4-82AF8B5411A5}" name="idx" dataDxfId="77" totalsRowDxfId="76">
+    <tableColumn id="1" xr3:uid="{E5C709EC-0E47-4EDD-9AB4-82AF8B5411A5}" name="idx" dataDxfId="74" totalsRowDxfId="73">
       <calculatedColumnFormula>ROW()-ROW(표3[[#Headers],[idx]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{032192ED-0766-44F7-B9BA-201AC15667F2}" name="대분류" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{676152BA-B8A3-4CCD-B6FB-17F2F86B68B1}" name="중분류" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{AB904A36-93D6-4381-8BDD-5B9EB9190422}" name="소분류" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="10" xr3:uid="{3A5F6F4C-1C18-4BF9-92C1-2B1EFE1DEF4C}" name="지불자" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="9" xr3:uid="{915B80BF-58AD-4453-B3DE-E2466B56274D}" name="지불여부" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{B9CAB3FE-4A1D-470C-AC88-A96041EA3259}" name="예산" dataDxfId="65" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" xr3:uid="{F8B507DA-F643-41E8-964C-BE9288CF0913}" name="예산(한글)" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="쉼표 [0]">
+    <tableColumn id="2" xr3:uid="{032192ED-0766-44F7-B9BA-201AC15667F2}" name="대분류" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{676152BA-B8A3-4CCD-B6FB-17F2F86B68B1}" name="중분류" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{AB904A36-93D6-4381-8BDD-5B9EB9190422}" name="소분류" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="10" xr3:uid="{3A5F6F4C-1C18-4BF9-92C1-2B1EFE1DEF4C}" name="지불자" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="9" xr3:uid="{915B80BF-58AD-4453-B3DE-E2466B56274D}" name="지불여부" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{B9CAB3FE-4A1D-470C-AC88-A96041EA3259}" name="예산" dataDxfId="62" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" xr3:uid="{F8B507DA-F643-41E8-964C-BE9288CF0913}" name="예산(한글)" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>NUMBERSTRING(표3[[#This Row],[예산]], 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{02EB1C3D-28FF-414C-B4B1-8E06ADD3C327}" name="내용" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{02EB1C3D-28FF-414C-B4B1-8E06ADD3C327}" name="내용" dataDxfId="59" totalsRowDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{46D64D37-4340-44DE-9947-46BB555F9F82}" name="표6" displayName="표6" ref="B5:E16" totalsRowCount="1" headerRowDxfId="60" dataDxfId="58" totalsRowDxfId="56" headerRowBorderDxfId="59" tableBorderDxfId="57" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{46D64D37-4340-44DE-9947-46BB555F9F82}" name="표6" displayName="표6" ref="B5:E16" totalsRowCount="1" headerRowDxfId="57" dataDxfId="55" totalsRowDxfId="53" headerRowBorderDxfId="56" tableBorderDxfId="54" totalsRowBorderDxfId="52">
   <sortState ref="B6:E15">
     <sortCondition descending="1" ref="D5:D15"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{76637792-AEA0-4A51-A431-6B2908A4CD02}" name="idx" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="1" xr3:uid="{76637792-AEA0-4A51-A431-6B2908A4CD02}" name="idx" dataDxfId="51" totalsRowDxfId="50">
       <calculatedColumnFormula>ROW()-ROW(표6[[#Headers],[idx]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CBA5D722-BC58-4EED-8F39-A53E43AB0527}" name="분류" totalsRowLabel="합계" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{5C4D2FED-9706-4B2B-BAC0-67356BD4A62F}" name="예산" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="쉼표 [0]" totalsRowCellStyle="쉼표 [0]">
+    <tableColumn id="2" xr3:uid="{CBA5D722-BC58-4EED-8F39-A53E43AB0527}" name="분류" totalsRowLabel="합계" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{5C4D2FED-9706-4B2B-BAC0-67356BD4A62F}" name="예산" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="쉼표 [0]" totalsRowCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUMIF(표3[대분류], 표6[[#This Row],[분류]], 표3[예산])</calculatedColumnFormula>
       <totalsRowFormula>SUM(D6:D15)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{51AAEA17-AE4D-4DDC-B8F9-A9C789F0838D}" name="예산(한글)" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="47">
+    <tableColumn id="4" xr3:uid="{51AAEA17-AE4D-4DDC-B8F9-A9C789F0838D}" name="예산(한글)" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>NUMBERSTRING(표6[[#This Row],[예산]], 1)</calculatedColumnFormula>
       <totalsRowFormula>IF(표6[[#Totals],[예산]]=표8[[#Totals],[예산]],"-","합산 오류")</totalsRowFormula>
     </tableColumn>
@@ -7355,20 +7329,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2F0ECE26-4A17-4B75-8688-7740EE3CBE32}" name="표8" displayName="표8" ref="G5:J11" totalsRowCount="1" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2F0ECE26-4A17-4B75-8688-7740EE3CBE32}" name="표8" displayName="표8" ref="G5:J11" totalsRowCount="1" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" totalsRowBorderDxfId="39">
   <sortState ref="G6:J10">
     <sortCondition descending="1" ref="I5:I10"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{540A0581-ADA6-4004-85E0-D092716FAAE9}" name="idx" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="1" xr3:uid="{540A0581-ADA6-4004-85E0-D092716FAAE9}" name="idx" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>ROW()-ROW(표8[[#Headers],[idx]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6359FBD5-DBFF-43F8-9ABA-51B2290BD522}" name="분류" totalsRowLabel="합계" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{4519376C-A553-4890-A233-321D99656061}" name="예산" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="쉼표 [0]" totalsRowCellStyle="쉼표 [0]">
+    <tableColumn id="2" xr3:uid="{6359FBD5-DBFF-43F8-9ABA-51B2290BD522}" name="분류" totalsRowLabel="합계" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{4519376C-A553-4890-A233-321D99656061}" name="예산" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="쉼표 [0]" totalsRowCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUMIF(표3[지불자], 표8[[#This Row],[분류]], 표3[예산])</calculatedColumnFormula>
       <totalsRowFormula>SUM(I6:I10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C1E9D029-AFEC-45E5-A63A-E49E3977A4C1}" name="예산(한글)" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="4" xr3:uid="{C1E9D029-AFEC-45E5-A63A-E49E3977A4C1}" name="예산(한글)" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>NUMBERSTRING(표8[[#This Row],[예산]], 1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7377,17 +7351,17 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3139AED1-8792-481D-8922-3AE5314E74E9}" name="표10" displayName="표10" ref="L5:O8" totalsRowCount="1" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3139AED1-8792-481D-8922-3AE5314E74E9}" name="표10" displayName="표10" ref="L5:O8" totalsRowCount="1" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2E0C6E11-36A5-43C0-BB22-D9D60123C0F3}" name="idx" dataDxfId="28" totalsRowDxfId="27">
+    <tableColumn id="1" xr3:uid="{2E0C6E11-36A5-43C0-BB22-D9D60123C0F3}" name="idx" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>ROW()-ROW(표10[[#Headers],[idx]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{289915BB-85F7-4ADC-BBBD-62418B45B79F}" name="분류" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{B95ADE38-4448-456D-AA72-2449147BE063}" name="예산" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="쉼표 [0]" totalsRowCellStyle="쉼표 [0]">
+    <tableColumn id="2" xr3:uid="{289915BB-85F7-4ADC-BBBD-62418B45B79F}" name="분류" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{B95ADE38-4448-456D-AA72-2449147BE063}" name="예산" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="쉼표 [0]" totalsRowCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUMIF(표3[지불여부], 표10[[#This Row],[분류]], 표3[예산])</calculatedColumnFormula>
       <totalsRowFormula>SUM(N6:N7)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F74F4C14-33A7-4B28-BF3E-F4EED536BA9A}" name="예산(한글)" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="4" xr3:uid="{F74F4C14-33A7-4B28-BF3E-F4EED536BA9A}" name="예산(한글)" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>NUMBERSTRING(표10[[#This Row],[예산]], 1)</calculatedColumnFormula>
       <totalsRowFormula>IF(표8[[#Totals],[예산]] = 표10[[#Totals],[예산]], "-", "합산 오류")</totalsRowFormula>
     </tableColumn>
@@ -7397,24 +7371,24 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{783D69C3-4D7E-43E3-A085-29A40661E7B3}" name="표1_5" displayName="표1_5" ref="B3:G22" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{783D69C3-4D7E-43E3-A085-29A40661E7B3}" name="표1_5" displayName="표1_5" ref="B3:G22" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FB59FD60-0D31-46F9-A305-748A5BDC1C01}" name="항목" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{493D2591-3A6F-4007-A71D-B29E0EB70B18}" name="담당" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{7454D39F-20F3-44B1-BC0F-FC859792CDFC}" name="대분류" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{F5433CDD-586B-4B78-8D02-97356F4CEEA5}" name="분류" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{111249A5-1F95-43EF-B024-E7FC81A817DC}" name="금액(원)" dataDxfId="14" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" xr3:uid="{2E7249F5-A239-4EC6-AECD-10B3A526009A}" name="비고" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{FB59FD60-0D31-46F9-A305-748A5BDC1C01}" name="항목" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{493D2591-3A6F-4007-A71D-B29E0EB70B18}" name="담당" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{7454D39F-20F3-44B1-BC0F-FC859792CDFC}" name="대분류" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{F5433CDD-586B-4B78-8D02-97356F4CEEA5}" name="분류" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{111249A5-1F95-43EF-B024-E7FC81A817DC}" name="금액(원)" dataDxfId="11" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" xr3:uid="{2E7249F5-A239-4EC6-AECD-10B3A526009A}" name="비고" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FCEBFF01-4944-44F1-ABC7-0B61B21A510A}" name="표4" displayName="표4" ref="I3:J5" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FCEBFF01-4944-44F1-ABC7-0B61B21A510A}" name="표4" displayName="표4" ref="I3:J5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{76F44294-16A0-4FBA-A30D-6AE72BCA53D0}" name="항목" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{2AA03351-874D-4094-9D5A-8EF5AE708506}" name="금액(원)" dataDxfId="9" dataCellStyle="쉼표 [0]">
+    <tableColumn id="1" xr3:uid="{76F44294-16A0-4FBA-A30D-6AE72BCA53D0}" name="항목" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{2AA03351-874D-4094-9D5A-8EF5AE708506}" name="금액(원)" dataDxfId="6" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUMIFS((표1_5[금액(원)]), 표1_5[분류],표4[[#This Row],[항목]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7719,10 +7693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA464AF-5E49-48C0-A399-26E95F617486}">
-  <dimension ref="B2:U18"/>
+  <dimension ref="B2:T18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7746,11 +7720,10 @@
     <col min="18" max="18" width="3.625" style="6" customWidth="1"/>
     <col min="19" max="19" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.125" style="6" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="6"/>
+    <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
@@ -7772,13 +7745,12 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="8"/>
       <c r="S2" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T2" s="7"/>
-      <c r="U2" s="8"/>
     </row>
-    <row r="3" spans="2:21" ht="3" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" ht="3" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
@@ -7827,11 +7799,8 @@
       <c r="T4" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="U4" s="17" t="s">
-        <v>254</v>
-      </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>1</v>
@@ -7881,14 +7850,14 @@
         <v>삼억오천만</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T5" s="16">
         <f>표6[[#Totals],[예산]]</f>
         <v>461592100</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>2</v>
@@ -7934,7 +7903,7 @@
         <v>111592100</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>3</v>
@@ -7973,7 +7942,7 @@
         <v>사천육백만</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" ht="27" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>4</v>
@@ -8012,7 +7981,7 @@
         <v>이백오십만</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" ht="27" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>5</v>
@@ -8052,7 +8021,7 @@
       </c>
       <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>6</v>
@@ -8092,7 +8061,7 @@
       </c>
       <c r="Q10" s="22"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>7</v>
@@ -8117,7 +8086,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>8</v>
@@ -8144,7 +8113,7 @@
       <c r="O12" s="16"/>
       <c r="Q12" s="16"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>9</v>
@@ -8170,7 +8139,7 @@
       </c>
       <c r="R13" s="31"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>10</v>
@@ -8196,7 +8165,7 @@
       </c>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>11</v>
@@ -8221,7 +8190,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>12</v>
@@ -8300,7 +8269,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B5:H18">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>IF($C5&lt;&gt;$C6, TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10921,17 +10890,17 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q9:S11 U9:Y11 Q12:Y69">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>IF($R9&lt;&gt;$R10, TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:S8 U8:X8">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>IF($R8&lt;&gt;$R10, TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Y6 Q7:S7 U7:X7 T7:T11 Y7:Y8">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>IF($R6&lt;&gt;$R9, TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11416,12 +11385,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B4:G8 B10:G22">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF($E4&lt;&gt;$E5, TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:G9">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>IF($E9&lt;&gt;#REF!, TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/결혼.xlsx
+++ b/결혼.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\Public_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F40496A6-95E0-440F-910B-7D5AA13A013C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7EA73802-A52C-4981-9C4B-176639108C57}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="23580" windowHeight="10035" xr2:uid="{B40C5E9C-4B4F-4983-B03C-533BE084DEF8}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="23580" windowHeight="10040" xr2:uid="{B40C5E9C-4B4F-4983-B03C-533BE084DEF8}"/>
   </bookViews>
   <sheets>
     <sheet name="자본금" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="254">
   <si>
     <t>idx</t>
   </si>
@@ -294,14 +294,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>한복</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>양복</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -932,9 +924,6 @@
     <t>피부과</t>
   </si>
   <si>
-    <t>한복</t>
-  </si>
-  <si>
     <t>청접장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1023,6 +1012,10 @@
   </si>
   <si>
     <t>ㅁ총 비용과 필요 대출액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한복-대여</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1652,6 +1645,131 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39994506668294322"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2565,7 +2683,7 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="8" tint="0.39994506668294322"/>
         </left>
@@ -2573,37 +2691,6 @@
         <top style="thin">
           <color theme="8" tint="0.39994506668294322"/>
         </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
         <bottom style="thin">
           <color theme="8" tint="0.39994506668294322"/>
         </bottom>
@@ -2613,37 +2700,6 @@
         <horizontal style="thin">
           <color theme="8" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2683,38 +2739,6 @@
         <horizontal style="thin">
           <color theme="8" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2755,37 +2779,6 @@
         <horizontal style="thin">
           <color theme="8" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39994506668294322"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -4234,28 +4227,6 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-F58F-46E8-A8BC-AA7BC16BEBFD}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -4460,9 +4431,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>결혼예산내역!$C$7:$C$15</c:f>
+              <c:f>결혼예산내역!$C$7:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>인테리어</c:v>
                 </c:pt>
@@ -4485,9 +4456,6 @@
                   <c:v>피부과</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>한복</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>조리기구</c:v>
                 </c:pt>
               </c:strCache>
@@ -4495,10 +4463,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>결혼예산내역!$D$7:$D$15</c:f>
+              <c:f>결혼예산내역!$D$7:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>18000000</c:v>
                 </c:pt>
@@ -4515,15 +4483,12 @@
                   <c:v>5500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4015000</c:v>
+                  <c:v>4715000</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2230000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>700000</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>600000</c:v>
                 </c:pt>
               </c:numCache>
@@ -7068,13 +7033,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7142,7 +7107,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="925510" cy="336246"/>
@@ -7306,20 +7271,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{46D64D37-4340-44DE-9947-46BB555F9F82}" name="표6" displayName="표6" ref="B5:E16" totalsRowCount="1" headerRowDxfId="57" dataDxfId="55" totalsRowDxfId="53" headerRowBorderDxfId="56" tableBorderDxfId="54" totalsRowBorderDxfId="52">
-  <sortState ref="B6:E15">
-    <sortCondition descending="1" ref="D5:D15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{46D64D37-4340-44DE-9947-46BB555F9F82}" name="표6" displayName="표6" ref="B5:E15" totalsRowCount="1" headerRowDxfId="57" dataDxfId="55" totalsRowDxfId="53" headerRowBorderDxfId="56" tableBorderDxfId="54" totalsRowBorderDxfId="52">
+  <sortState ref="B6:E14">
+    <sortCondition descending="1" ref="D5:D14"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{76637792-AEA0-4A51-A431-6B2908A4CD02}" name="idx" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="1" xr3:uid="{76637792-AEA0-4A51-A431-6B2908A4CD02}" name="idx" dataDxfId="51" totalsRowDxfId="9">
       <calculatedColumnFormula>ROW()-ROW(표6[[#Headers],[idx]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CBA5D722-BC58-4EED-8F39-A53E43AB0527}" name="분류" totalsRowLabel="합계" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{5C4D2FED-9706-4B2B-BAC0-67356BD4A62F}" name="예산" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="쉼표 [0]" totalsRowCellStyle="쉼표 [0]">
+    <tableColumn id="2" xr3:uid="{CBA5D722-BC58-4EED-8F39-A53E43AB0527}" name="분류" totalsRowLabel="합계" dataDxfId="50" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{5C4D2FED-9706-4B2B-BAC0-67356BD4A62F}" name="예산" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="7" dataCellStyle="쉼표 [0]" totalsRowCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUMIF(표3[대분류], 표6[[#This Row],[분류]], 표3[예산])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(D6:D15)</totalsRowFormula>
+      <totalsRowFormula>SUM(D6:D14)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{51AAEA17-AE4D-4DDC-B8F9-A9C789F0838D}" name="예산(한글)" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="4" xr3:uid="{51AAEA17-AE4D-4DDC-B8F9-A9C789F0838D}" name="예산(한글)" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="6">
       <calculatedColumnFormula>NUMBERSTRING(표6[[#This Row],[예산]], 1)</calculatedColumnFormula>
       <totalsRowFormula>IF(표6[[#Totals],[예산]]=표8[[#Totals],[예산]],"-","합산 오류")</totalsRowFormula>
     </tableColumn>
@@ -7329,20 +7294,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2F0ECE26-4A17-4B75-8688-7740EE3CBE32}" name="표8" displayName="표8" ref="G5:J11" totalsRowCount="1" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" totalsRowBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2F0ECE26-4A17-4B75-8688-7740EE3CBE32}" name="표8" displayName="표8" ref="G5:J11" totalsRowCount="1" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <sortState ref="G6:J10">
     <sortCondition descending="1" ref="I5:I10"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{540A0581-ADA6-4004-85E0-D092716FAAE9}" name="idx" dataDxfId="38" totalsRowDxfId="37">
+    <tableColumn id="1" xr3:uid="{540A0581-ADA6-4004-85E0-D092716FAAE9}" name="idx" dataDxfId="42" totalsRowDxfId="41">
       <calculatedColumnFormula>ROW()-ROW(표8[[#Headers],[idx]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6359FBD5-DBFF-43F8-9ABA-51B2290BD522}" name="분류" totalsRowLabel="합계" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{4519376C-A553-4890-A233-321D99656061}" name="예산" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="쉼표 [0]" totalsRowCellStyle="쉼표 [0]">
+    <tableColumn id="2" xr3:uid="{6359FBD5-DBFF-43F8-9ABA-51B2290BD522}" name="분류" totalsRowLabel="합계" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{4519376C-A553-4890-A233-321D99656061}" name="예산" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="쉼표 [0]" totalsRowCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUMIF(표3[지불자], 표8[[#This Row],[분류]], 표3[예산])</calculatedColumnFormula>
       <totalsRowFormula>SUM(I6:I10)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C1E9D029-AFEC-45E5-A63A-E49E3977A4C1}" name="예산(한글)" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="4" xr3:uid="{C1E9D029-AFEC-45E5-A63A-E49E3977A4C1}" name="예산(한글)" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>NUMBERSTRING(표8[[#This Row],[예산]], 1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7351,17 +7316,17 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3139AED1-8792-481D-8922-3AE5314E74E9}" name="표10" displayName="표10" ref="L5:O8" totalsRowCount="1" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3139AED1-8792-481D-8922-3AE5314E74E9}" name="표10" displayName="표10" ref="L5:O8" totalsRowCount="1" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2E0C6E11-36A5-43C0-BB22-D9D60123C0F3}" name="idx" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="1" xr3:uid="{2E0C6E11-36A5-43C0-BB22-D9D60123C0F3}" name="idx" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>ROW()-ROW(표10[[#Headers],[idx]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{289915BB-85F7-4ADC-BBBD-62418B45B79F}" name="분류" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{B95ADE38-4448-456D-AA72-2449147BE063}" name="예산" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="쉼표 [0]" totalsRowCellStyle="쉼표 [0]">
+    <tableColumn id="2" xr3:uid="{289915BB-85F7-4ADC-BBBD-62418B45B79F}" name="분류" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{B95ADE38-4448-456D-AA72-2449147BE063}" name="예산" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="쉼표 [0]" totalsRowCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUMIF(표3[지불여부], 표10[[#This Row],[분류]], 표3[예산])</calculatedColumnFormula>
       <totalsRowFormula>SUM(N6:N7)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F74F4C14-33A7-4B28-BF3E-F4EED536BA9A}" name="예산(한글)" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="4" xr3:uid="{F74F4C14-33A7-4B28-BF3E-F4EED536BA9A}" name="예산(한글)" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>NUMBERSTRING(표10[[#This Row],[예산]], 1)</calculatedColumnFormula>
       <totalsRowFormula>IF(표8[[#Totals],[예산]] = 표10[[#Totals],[예산]], "-", "합산 오류")</totalsRowFormula>
     </tableColumn>
@@ -7371,24 +7336,24 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{783D69C3-4D7E-43E3-A085-29A40661E7B3}" name="표1_5" displayName="표1_5" ref="B3:G22" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{783D69C3-4D7E-43E3-A085-29A40661E7B3}" name="표1_5" displayName="표1_5" ref="B3:G22" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FB59FD60-0D31-46F9-A305-748A5BDC1C01}" name="항목" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{493D2591-3A6F-4007-A71D-B29E0EB70B18}" name="담당" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{7454D39F-20F3-44B1-BC0F-FC859792CDFC}" name="대분류" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{F5433CDD-586B-4B78-8D02-97356F4CEEA5}" name="분류" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{111249A5-1F95-43EF-B024-E7FC81A817DC}" name="금액(원)" dataDxfId="11" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" xr3:uid="{2E7249F5-A239-4EC6-AECD-10B3A526009A}" name="비고" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{FB59FD60-0D31-46F9-A305-748A5BDC1C01}" name="항목" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{493D2591-3A6F-4007-A71D-B29E0EB70B18}" name="담당" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{7454D39F-20F3-44B1-BC0F-FC859792CDFC}" name="대분류" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{F5433CDD-586B-4B78-8D02-97356F4CEEA5}" name="분류" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{111249A5-1F95-43EF-B024-E7FC81A817DC}" name="금액(원)" dataDxfId="15" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" xr3:uid="{2E7249F5-A239-4EC6-AECD-10B3A526009A}" name="비고" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FCEBFF01-4944-44F1-ABC7-0B61B21A510A}" name="표4" displayName="표4" ref="I3:J5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FCEBFF01-4944-44F1-ABC7-0B61B21A510A}" name="표4" displayName="표4" ref="I3:J5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{76F44294-16A0-4FBA-A30D-6AE72BCA53D0}" name="항목" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{2AA03351-874D-4094-9D5A-8EF5AE708506}" name="금액(원)" dataDxfId="6" dataCellStyle="쉼표 [0]">
+    <tableColumn id="1" xr3:uid="{76F44294-16A0-4FBA-A30D-6AE72BCA53D0}" name="항목" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{2AA03351-874D-4094-9D5A-8EF5AE708506}" name="금액(원)" dataDxfId="10" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUMIFS((표1_5[금액(원)]), 표1_5[분류],표4[[#This Row],[항목]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7696,34 +7661,34 @@
   <dimension ref="B2:T18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="3.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="3.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="28.58203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.58203125" style="6" customWidth="1"/>
     <col min="10" max="11" width="9" style="6"/>
     <col min="12" max="12" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="3.58203125" style="6" customWidth="1"/>
     <col min="15" max="15" width="13.25" style="6" customWidth="1"/>
     <col min="16" max="16" width="8" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="3.58203125" style="6" customWidth="1"/>
     <col min="19" max="19" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.5" style="6" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
@@ -7745,12 +7710,12 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="8"/>
       <c r="S2" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="2:20" ht="3" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" ht="3" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
@@ -7767,7 +7732,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>3</v>
@@ -7776,7 +7741,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>25</v>
@@ -7794,13 +7759,13 @@
         <v>24</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B5" s="9">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>1</v>
@@ -7828,7 +7793,7 @@
         <v>23</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L5" s="11">
         <f>SUMIFS(표1[금액(원)], 표1[이름], 표2[[#This Row],[이름]], 표1[가용여부], 표2[가용여부])</f>
@@ -7850,14 +7815,14 @@
         <v>삼억오천만</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="T5" s="16">
         <f>표6[[#Totals],[예산]]</f>
         <v>461592100</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B6" s="9">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>2</v>
@@ -7885,7 +7850,7 @@
         <v>23</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L6" s="11">
         <f>SUMIFS(표1[금액(원)], 표1[이름], 표2[[#This Row],[이름]], 표1[가용여부], 표2[가용여부])</f>
@@ -7896,14 +7861,14 @@
         <v>오백오십만</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="T6" s="22">
         <f>T5-O5</f>
         <v>111592100</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B7" s="9">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>3</v>
@@ -7931,7 +7896,7 @@
         <v>28</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L7" s="11">
         <f>SUMIFS(표1[금액(원)], 표1[이름], 표2[[#This Row],[이름]], 표1[가용여부], 표2[가용여부])</f>
@@ -7942,7 +7907,7 @@
         <v>사천육백만</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" ht="32" x14ac:dyDescent="0.45">
       <c r="B8" s="9">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>4</v>
@@ -7964,13 +7929,13 @@
         <v>일천사백만</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L8" s="11">
         <f>SUMIFS(표1[금액(원)], 표1[이름], 표2[[#This Row],[이름]], 표1[가용여부], 표2[가용여부])</f>
@@ -7981,7 +7946,7 @@
         <v>이백오십만</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" ht="32" x14ac:dyDescent="0.45">
       <c r="B9" s="9">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>5</v>
@@ -8006,10 +7971,10 @@
         <v>14</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L9" s="11">
         <f>SUMIFS(표1[금액(원)], 표1[이름], 표2[[#This Row],[이름]], 표1[가용여부], 표2[가용여부])</f>
@@ -8021,7 +7986,7 @@
       </c>
       <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B10" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>6</v>
@@ -8046,7 +8011,7 @@
         <v>36</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>44</v>
@@ -8061,7 +8026,7 @@
       </c>
       <c r="Q10" s="22"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B11" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>7</v>
@@ -8086,7 +8051,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B12" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>8</v>
@@ -8113,7 +8078,7 @@
       <c r="O12" s="16"/>
       <c r="Q12" s="16"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B13" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>9</v>
@@ -8139,7 +8104,7 @@
       </c>
       <c r="R13" s="31"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B14" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>10</v>
@@ -8165,16 +8130,16 @@
       </c>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B15" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>44</v>
@@ -8187,22 +8152,22 @@
         <v>일억</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B16" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F16" s="1">
         <v>5000000</v>
@@ -8212,19 +8177,19 @@
         <v>오백만</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B17" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>44</v>
@@ -8237,22 +8202,22 @@
         <v>오천만</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B18" s="4">
         <f>ROW()-ROW(표1[[#Headers],[idx]])</f>
         <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F18" s="1">
         <v>10000000</v>
@@ -8262,7 +8227,7 @@
         <v>일천만</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q18" s="16"/>
     </row>
@@ -8287,48 +8252,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AADAAA-C3F9-4C36-A7BB-AD2815D694F8}">
   <dimension ref="B2:AF69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="3.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="3.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="3.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.58203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="3.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.75" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="3.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.58203125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="3.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.58203125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="3.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.5" style="6" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20" style="6" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="31.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="3.58203125" style="6" customWidth="1"/>
     <col min="27" max="27" width="9" style="6"/>
     <col min="28" max="28" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="19.75" style="6" customWidth="1"/>
-    <col min="30" max="30" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.5" style="6" bestFit="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="66" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
@@ -8358,7 +8321,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:31" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:31" ht="5.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
       <c r="D3" s="61"/>
@@ -8383,56 +8346,56 @@
       <c r="X3" s="61"/>
       <c r="Y3" s="61"/>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B4" s="63" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L4" s="63" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B5" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>237</v>
-      </c>
       <c r="G5" s="33" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="M5" s="34" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N5" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="33" t="s">
         <v>16</v>
@@ -8447,28 +8410,28 @@
         <v>19</v>
       </c>
       <c r="U5" s="34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="V5" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W5" s="34" t="s">
         <v>29</v>
       </c>
       <c r="X5" s="34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Y5" s="34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B6" s="48">
         <f>ROW()-ROW(표6[[#Headers],[idx]])</f>
         <v>1</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D6" s="39">
         <f>SUMIF(표3[대분류], 표6[[#This Row],[분류]], 표3[예산])</f>
@@ -8483,7 +8446,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I6" s="39">
         <f>SUMIF(표3[지불자], 표8[[#This Row],[분류]], 표3[예산])</f>
@@ -8498,7 +8461,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N6" s="39">
         <f>SUMIF(표3[지불여부], 표10[[#This Row],[분류]], 표3[예산])</f>
@@ -8516,16 +8479,16 @@
         <v>33</v>
       </c>
       <c r="S6" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="T6" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U6" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V6" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W6" s="38">
         <v>140000000</v>
@@ -8535,7 +8498,7 @@
         <v>일억사천만</v>
       </c>
       <c r="Y6" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>53</v>
@@ -8544,13 +8507,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B7" s="48">
         <f>ROW()-ROW(표6[[#Headers],[idx]])</f>
         <v>2</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D7" s="39">
         <f>SUMIF(표3[대분류], 표6[[#This Row],[분류]], 표3[예산])</f>
@@ -8565,7 +8528,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I7" s="39">
         <f>SUMIF(표3[지불자], 표8[[#This Row],[분류]], 표3[예산])</f>
@@ -8580,7 +8543,7 @@
         <v>2</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N7" s="39">
         <f>SUMIF(표3[지불여부], 표10[[#This Row],[분류]], 표3[예산])</f>
@@ -8598,16 +8561,16 @@
         <v>33</v>
       </c>
       <c r="S7" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="T7" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U7" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V7" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W7" s="38">
         <v>10000000</v>
@@ -8617,19 +8580,19 @@
         <v>일천만</v>
       </c>
       <c r="Y7" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AE7" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B8" s="48">
         <f>ROW()-ROW(표6[[#Headers],[idx]])</f>
         <v>3</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D8" s="39">
         <f>SUMIF(표3[대분류], 표6[[#This Row],[분류]], 표3[예산])</f>
@@ -8644,7 +8607,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I8" s="39">
         <f>SUMIF(표3[지불자], 표8[[#This Row],[분류]], 표3[예산])</f>
@@ -8669,19 +8632,19 @@
         <v>3</v>
       </c>
       <c r="R8" s="36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="S8" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="T8" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U8" s="36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="V8" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W8" s="38">
         <v>40000000</v>
@@ -8691,16 +8654,16 @@
         <v>사천만</v>
       </c>
       <c r="Y8" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B9" s="48">
         <f>ROW()-ROW(표6[[#Headers],[idx]])</f>
         <v>4</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D9" s="39">
         <f>SUMIF(표3[대분류], 표6[[#This Row],[분류]], 표3[예산])</f>
@@ -8715,7 +8678,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I9" s="39">
         <f>SUMIF(표3[지불자], 표8[[#This Row],[분류]], 표3[예산])</f>
@@ -8733,16 +8696,16 @@
         <v>33</v>
       </c>
       <c r="S9" s="37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T9" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U9" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="V9" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W9" s="38">
         <v>100000000</v>
@@ -8752,19 +8715,19 @@
         <v>일억</v>
       </c>
       <c r="Y9" s="59" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AE9" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B10" s="48">
         <f>ROW()-ROW(표6[[#Headers],[idx]])</f>
         <v>5</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D10" s="39">
         <f>SUMIF(표3[대분류], 표6[[#This Row],[분류]], 표3[예산])</f>
@@ -8779,7 +8742,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I10" s="42">
         <f>SUMIF(표3[지불자], 표8[[#This Row],[분류]], 표3[예산])</f>
@@ -8797,16 +8760,16 @@
         <v>33</v>
       </c>
       <c r="S10" s="37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T10" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U10" s="36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="V10" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W10" s="38">
         <v>60000000</v>
@@ -8816,19 +8779,19 @@
         <v>육천만</v>
       </c>
       <c r="Y10" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AE10" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B11" s="48">
         <f>ROW()-ROW(표6[[#Headers],[idx]])</f>
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D11" s="39">
         <f>SUMIF(표3[대분류], 표6[[#This Row],[분류]], 표3[예산])</f>
@@ -8840,7 +8803,7 @@
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I11" s="42">
         <f>SUM(I6:I10)</f>
@@ -8855,16 +8818,16 @@
         <v>33</v>
       </c>
       <c r="S11" s="37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T11" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U11" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V11" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W11" s="38">
         <v>50000000</v>
@@ -8874,24 +8837,24 @@
         <v>오천만</v>
       </c>
       <c r="Y11" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:31" ht="17" x14ac:dyDescent="0.45">
       <c r="B12" s="48">
         <f>ROW()-ROW(표6[[#Headers],[idx]])</f>
         <v>7</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D12" s="39">
         <f>SUMIF(표3[대분류], 표6[[#This Row],[분류]], 표3[예산])</f>
-        <v>4015000</v>
+        <v>4715000</v>
       </c>
       <c r="E12" s="49" t="str">
         <f>NUMBERSTRING(표6[[#This Row],[예산]], 1)</f>
-        <v>사백일만오천</v>
+        <v>사백칠십일만오천</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -8906,13 +8869,13 @@
         <v>67</v>
       </c>
       <c r="T12" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U12" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V12" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W12" s="38">
         <v>1560000</v>
@@ -8922,25 +8885,25 @@
         <v>일백오십육만</v>
       </c>
       <c r="Y12" s="59" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>59</v>
       </c>
       <c r="AD12" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AE12" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:31" ht="17" x14ac:dyDescent="0.45">
       <c r="B13" s="48">
         <f>ROW()-ROW(표6[[#Headers],[idx]])</f>
         <v>8</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D13" s="39">
         <f>SUMIF(표3[대분류], 표6[[#This Row],[분류]], 표3[예산])</f>
@@ -8957,19 +8920,19 @@
         <v>8</v>
       </c>
       <c r="R13" s="36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S13" s="37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="T13" s="37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U13" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V13" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W13" s="38">
         <v>3900000</v>
@@ -8979,28 +8942,28 @@
         <v>삼백구십만</v>
       </c>
       <c r="Y13" s="59" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AD13" s="6" t="s">
         <v>60</v>
       </c>
       <c r="AE13" s="20"/>
     </row>
-    <row r="14" spans="2:31" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:31" ht="17" x14ac:dyDescent="0.45">
       <c r="B14" s="48">
         <f>ROW()-ROW(표6[[#Headers],[idx]])</f>
         <v>9</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D14" s="39">
         <f>SUMIF(표3[대분류], 표6[[#This Row],[분류]], 표3[예산])</f>
-        <v>700000</v>
+        <v>600000</v>
       </c>
       <c r="E14" s="49" t="str">
         <f>NUMBERSTRING(표6[[#This Row],[예산]], 1)</f>
-        <v>칠십만</v>
+        <v>육십만</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -9012,16 +8975,16 @@
         <v>33</v>
       </c>
       <c r="S14" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="T14" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="T14" s="37" t="s">
-        <v>162</v>
-      </c>
       <c r="U14" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V14" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W14" s="38">
         <v>390000</v>
@@ -9031,24 +8994,21 @@
         <v>삼십구만</v>
       </c>
       <c r="Y14" s="59" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="48">
-        <f>ROW()-ROW(표6[[#Headers],[idx]])</f>
-        <v>10</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="39">
-        <f>SUMIF(표3[대분류], 표6[[#This Row],[분류]], 표3[예산])</f>
-        <v>600000</v>
-      </c>
-      <c r="E15" s="49" t="str">
-        <f>NUMBERSTRING(표6[[#This Row],[예산]], 1)</f>
-        <v>육십만</v>
+    <row r="15" spans="2:31" ht="17" x14ac:dyDescent="0.45">
+      <c r="B15" s="50"/>
+      <c r="C15" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="42">
+        <f>SUM(D6:D14)</f>
+        <v>461592100</v>
+      </c>
+      <c r="E15" s="51" t="str">
+        <f>IF(표6[[#Totals],[예산]]=표8[[#Totals],[예산]],"-","합산 오류")</f>
+        <v>-</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -9060,16 +9020,16 @@
         <v>33</v>
       </c>
       <c r="S15" s="37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="T15" s="37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U15" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V15" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W15" s="38">
         <v>165000</v>
@@ -9079,25 +9039,13 @@
         <v>일십육만오천</v>
       </c>
       <c r="Y15" s="59" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="50"/>
-      <c r="C16" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="D16" s="42">
-        <f>SUM(D6:D15)</f>
-        <v>461592100</v>
-      </c>
-      <c r="E16" s="51" t="str">
-        <f>IF(표6[[#Totals],[예산]]=표8[[#Totals],[예산]],"-","합산 오류")</f>
-        <v>-</v>
-      </c>
+    <row r="16" spans="2:31" ht="17" x14ac:dyDescent="0.45">
       <c r="G16"/>
       <c r="H16"/>
       <c r="Q16" s="48">
@@ -9108,16 +9056,16 @@
         <v>33</v>
       </c>
       <c r="S16" s="37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="T16" s="37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U16" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V16" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W16" s="38">
         <v>152100</v>
@@ -9127,10 +9075,10 @@
         <v>일십오만이천일백</v>
       </c>
       <c r="Y16" s="59" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
-    <row r="17" spans="7:32" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:32" ht="17" x14ac:dyDescent="0.45">
       <c r="G17"/>
       <c r="H17"/>
       <c r="Q17" s="48">
@@ -9138,19 +9086,19 @@
         <v>12</v>
       </c>
       <c r="R17" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S17" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T17" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U17" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V17" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W17" s="38">
         <v>4500000</v>
@@ -9160,16 +9108,16 @@
         <v>사백오십만</v>
       </c>
       <c r="Y17" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AE17" s="21">
         <v>43250</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="18" spans="7:32" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:32" ht="17" x14ac:dyDescent="0.45">
       <c r="G18"/>
       <c r="H18"/>
       <c r="Q18" s="48">
@@ -9177,19 +9125,19 @@
         <v>13</v>
       </c>
       <c r="R18" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="S18" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="S18" s="37" t="s">
-        <v>188</v>
-      </c>
       <c r="T18" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U18" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V18" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W18" s="38">
         <v>5500000</v>
@@ -9199,13 +9147,13 @@
         <v>오백오십만</v>
       </c>
       <c r="Y18" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AE18" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="7:32" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:32" ht="17" x14ac:dyDescent="0.45">
       <c r="G19"/>
       <c r="H19"/>
       <c r="Q19" s="48">
@@ -9213,19 +9161,19 @@
         <v>14</v>
       </c>
       <c r="R19" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S19" s="37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T19" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U19" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V19" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W19" s="38">
         <v>4000000</v>
@@ -9235,10 +9183,10 @@
         <v>사백만</v>
       </c>
       <c r="Y19" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="20" spans="7:32" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:32" ht="17" x14ac:dyDescent="0.45">
       <c r="G20"/>
       <c r="H20"/>
       <c r="Q20" s="48">
@@ -9246,19 +9194,19 @@
         <v>15</v>
       </c>
       <c r="R20" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S20" s="37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T20" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U20" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V20" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W20" s="38">
         <v>3000000</v>
@@ -9268,10 +9216,10 @@
         <v>삼백만</v>
       </c>
       <c r="Y20" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="21" spans="7:32" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:32" ht="17" x14ac:dyDescent="0.45">
       <c r="G21"/>
       <c r="H21"/>
       <c r="Q21" s="48">
@@ -9279,19 +9227,19 @@
         <v>16</v>
       </c>
       <c r="R21" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S21" s="37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T21" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U21" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V21" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W21" s="38">
         <v>1000000</v>
@@ -9301,10 +9249,10 @@
         <v>일백만</v>
       </c>
       <c r="Y21" s="59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="22" spans="7:32" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:32" ht="17" x14ac:dyDescent="0.45">
       <c r="G22"/>
       <c r="H22"/>
       <c r="Q22" s="48">
@@ -9315,16 +9263,16 @@
         <v>68</v>
       </c>
       <c r="S22" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T22" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U22" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V22" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W22" s="38">
         <v>2500000</v>
@@ -9334,10 +9282,10 @@
         <v>이백오십만</v>
       </c>
       <c r="Y22" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="23" spans="7:32" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:32" ht="17" x14ac:dyDescent="0.45">
       <c r="G23"/>
       <c r="H23"/>
       <c r="Q23" s="48">
@@ -9348,16 +9296,16 @@
         <v>68</v>
       </c>
       <c r="S23" s="37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T23" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U23" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V23" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W23" s="38">
         <v>0</v>
@@ -9367,10 +9315,10 @@
         <v>영</v>
       </c>
       <c r="Y23" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="24" spans="7:32" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:32" ht="17" x14ac:dyDescent="0.45">
       <c r="G24"/>
       <c r="H24"/>
       <c r="Q24" s="48">
@@ -9381,16 +9329,16 @@
         <v>68</v>
       </c>
       <c r="S24" s="37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T24" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U24" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V24" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W24" s="38">
         <v>0</v>
@@ -9400,10 +9348,10 @@
         <v>영</v>
       </c>
       <c r="Y24" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="25" spans="7:32" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:32" ht="17" x14ac:dyDescent="0.45">
       <c r="G25"/>
       <c r="H25"/>
       <c r="Q25" s="48">
@@ -9414,16 +9362,16 @@
         <v>68</v>
       </c>
       <c r="S25" s="37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T25" s="37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U25" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V25" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W25" s="38">
         <v>1000000</v>
@@ -9433,14 +9381,14 @@
         <v>일백만</v>
       </c>
       <c r="Y25" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="26" spans="7:32" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:32" ht="17" x14ac:dyDescent="0.45">
       <c r="G26"/>
       <c r="H26"/>
       <c r="L26" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q26" s="48">
         <f>ROW()-ROW(표3[[#Headers],[idx]])</f>
@@ -9450,16 +9398,16 @@
         <v>30</v>
       </c>
       <c r="S26" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T26" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U26" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V26" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W26" s="39">
         <v>2000000</v>
@@ -9469,10 +9417,10 @@
         <v>이백만</v>
       </c>
       <c r="Y26" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="27" spans="7:32" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:32" ht="17" x14ac:dyDescent="0.45">
       <c r="G27"/>
       <c r="H27"/>
       <c r="Q27" s="48">
@@ -9483,16 +9431,16 @@
         <v>30</v>
       </c>
       <c r="S27" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T27" s="37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U27" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V27" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W27" s="39">
         <v>500000</v>
@@ -9502,10 +9450,10 @@
         <v>오십만</v>
       </c>
       <c r="Y27" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="28" spans="7:32" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:32" ht="17" x14ac:dyDescent="0.45">
       <c r="G28"/>
       <c r="H28"/>
       <c r="Q28" s="48">
@@ -9516,16 +9464,16 @@
         <v>30</v>
       </c>
       <c r="S28" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T28" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U28" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V28" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W28" s="39">
         <v>2000000</v>
@@ -9535,10 +9483,10 @@
         <v>이백만</v>
       </c>
       <c r="Y28" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="29" spans="7:32" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:32" ht="17" x14ac:dyDescent="0.45">
       <c r="G29"/>
       <c r="H29"/>
       <c r="Q29" s="48">
@@ -9549,16 +9497,16 @@
         <v>30</v>
       </c>
       <c r="S29" s="37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T29" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U29" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V29" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W29" s="39">
         <v>1500000</v>
@@ -9568,10 +9516,10 @@
         <v>일백오십만</v>
       </c>
       <c r="Y29" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="30" spans="7:32" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:32" ht="17" x14ac:dyDescent="0.45">
       <c r="G30"/>
       <c r="H30"/>
       <c r="Q30" s="48">
@@ -9582,16 +9530,16 @@
         <v>30</v>
       </c>
       <c r="S30" s="37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T30" s="37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="U30" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V30" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W30" s="39">
         <v>3000000</v>
@@ -9601,10 +9549,10 @@
         <v>삼백만</v>
       </c>
       <c r="Y30" s="59" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
-    <row r="31" spans="7:32" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:32" ht="17" x14ac:dyDescent="0.45">
       <c r="G31"/>
       <c r="H31"/>
       <c r="Q31" s="48">
@@ -9615,16 +9563,16 @@
         <v>30</v>
       </c>
       <c r="S31" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="T31" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="U31" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V31" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W31" s="39">
         <v>300000</v>
@@ -9634,10 +9582,10 @@
         <v>삼십만</v>
       </c>
       <c r="Y31" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="32" spans="7:32" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:32" ht="17" x14ac:dyDescent="0.45">
       <c r="G32"/>
       <c r="H32"/>
       <c r="Q32" s="48">
@@ -9648,16 +9596,16 @@
         <v>30</v>
       </c>
       <c r="S32" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T32" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U32" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V32" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W32" s="39">
         <v>1000000</v>
@@ -9667,10 +9615,10 @@
         <v>일백만</v>
       </c>
       <c r="Y32" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="33" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G33"/>
       <c r="H33"/>
       <c r="Q33" s="48">
@@ -9681,16 +9629,16 @@
         <v>30</v>
       </c>
       <c r="S33" s="37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T33" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U33" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V33" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W33" s="39">
         <v>200000</v>
@@ -9700,10 +9648,10 @@
         <v>이십만</v>
       </c>
       <c r="Y33" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="34" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G34"/>
       <c r="H34"/>
       <c r="Q34" s="48">
@@ -9714,16 +9662,16 @@
         <v>30</v>
       </c>
       <c r="S34" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T34" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U34" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V34" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W34" s="39">
         <v>200000</v>
@@ -9733,10 +9681,10 @@
         <v>이십만</v>
       </c>
       <c r="Y34" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="35" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G35"/>
       <c r="H35"/>
       <c r="Q35" s="48">
@@ -9747,16 +9695,16 @@
         <v>30</v>
       </c>
       <c r="S35" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="T35" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U35" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V35" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W35" s="39">
         <v>50000</v>
@@ -9766,10 +9714,10 @@
         <v>오만</v>
       </c>
       <c r="Y35" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="36" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G36"/>
       <c r="H36"/>
       <c r="Q36" s="48">
@@ -9780,16 +9728,16 @@
         <v>30</v>
       </c>
       <c r="S36" s="37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T36" s="37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U36" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V36" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W36" s="39">
         <v>150000</v>
@@ -9799,10 +9747,10 @@
         <v>일십오만</v>
       </c>
       <c r="Y36" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="37" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G37"/>
       <c r="H37"/>
       <c r="Q37" s="48">
@@ -9813,16 +9761,16 @@
         <v>30</v>
       </c>
       <c r="S37" s="37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="T37" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U37" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V37" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W37" s="39">
         <v>100000</v>
@@ -9832,10 +9780,10 @@
         <v>일십만</v>
       </c>
       <c r="Y37" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="38" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G38"/>
       <c r="H38"/>
       <c r="Q38" s="48">
@@ -9846,16 +9794,16 @@
         <v>31</v>
       </c>
       <c r="S38" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T38" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U38" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V38" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W38" s="39">
         <v>2000000</v>
@@ -9865,10 +9813,10 @@
         <v>이백만</v>
       </c>
       <c r="Y38" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="39" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G39"/>
       <c r="H39"/>
       <c r="Q39" s="48">
@@ -9879,16 +9827,16 @@
         <v>31</v>
       </c>
       <c r="S39" s="37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T39" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U39" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V39" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W39" s="39">
         <v>1000000</v>
@@ -9898,10 +9846,10 @@
         <v>일백만</v>
       </c>
       <c r="Y39" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="40" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G40"/>
       <c r="H40"/>
       <c r="Q40" s="48">
@@ -9912,16 +9860,16 @@
         <v>31</v>
       </c>
       <c r="S40" s="37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="T40" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U40" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V40" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W40" s="39">
         <v>300000</v>
@@ -9931,10 +9879,10 @@
         <v>삼십만</v>
       </c>
       <c r="Y40" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="41" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G41"/>
       <c r="H41"/>
       <c r="Q41" s="48">
@@ -9945,16 +9893,16 @@
         <v>31</v>
       </c>
       <c r="S41" s="37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T41" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U41" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V41" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W41" s="39">
         <v>1000000</v>
@@ -9964,10 +9912,10 @@
         <v>일백만</v>
       </c>
       <c r="Y41" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="42" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G42"/>
       <c r="H42"/>
       <c r="Q42" s="48">
@@ -9978,16 +9926,16 @@
         <v>31</v>
       </c>
       <c r="S42" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T42" s="37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U42" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V42" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W42" s="39">
         <v>300000</v>
@@ -9997,10 +9945,10 @@
         <v>삼십만</v>
       </c>
       <c r="Y42" s="59" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="43" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G43"/>
       <c r="H43"/>
       <c r="Q43" s="48">
@@ -10011,16 +9959,16 @@
         <v>31</v>
       </c>
       <c r="S43" s="37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="T43" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U43" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V43" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W43" s="39">
         <v>150000</v>
@@ -10030,10 +9978,10 @@
         <v>일십오만</v>
       </c>
       <c r="Y43" s="59" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="44" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G44"/>
       <c r="H44"/>
       <c r="Q44" s="48">
@@ -10044,16 +9992,16 @@
         <v>31</v>
       </c>
       <c r="S44" s="37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T44" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U44" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V44" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W44" s="39">
         <v>150000</v>
@@ -10063,10 +10011,10 @@
         <v>일십오만</v>
       </c>
       <c r="Y44" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="45" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G45"/>
       <c r="H45"/>
       <c r="Q45" s="48">
@@ -10077,16 +10025,16 @@
         <v>31</v>
       </c>
       <c r="S45" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T45" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U45" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V45" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W45" s="39">
         <v>200000</v>
@@ -10096,10 +10044,10 @@
         <v>이십만</v>
       </c>
       <c r="Y45" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="46" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G46"/>
       <c r="H46"/>
       <c r="Q46" s="48">
@@ -10110,16 +10058,16 @@
         <v>31</v>
       </c>
       <c r="S46" s="37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="T46" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U46" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V46" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W46" s="39">
         <v>400000</v>
@@ -10129,10 +10077,10 @@
         <v>사십만</v>
       </c>
       <c r="Y46" s="59" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="47" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G47"/>
       <c r="H47"/>
       <c r="Q47" s="48">
@@ -10140,19 +10088,19 @@
         <v>42</v>
       </c>
       <c r="R47" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S47" s="37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T47" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="U47" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V47" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W47" s="39">
         <v>100000</v>
@@ -10162,10 +10110,10 @@
         <v>일십만</v>
       </c>
       <c r="Y47" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="48" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G48"/>
       <c r="H48"/>
       <c r="Q48" s="48">
@@ -10173,19 +10121,19 @@
         <v>43</v>
       </c>
       <c r="R48" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S48" s="37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T48" s="37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="U48" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V48" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W48" s="39">
         <v>150000</v>
@@ -10195,10 +10143,10 @@
         <v>일십오만</v>
       </c>
       <c r="Y48" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="49" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G49"/>
       <c r="H49"/>
       <c r="Q49" s="48">
@@ -10206,19 +10154,19 @@
         <v>44</v>
       </c>
       <c r="R49" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S49" s="37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T49" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U49" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V49" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W49" s="39">
         <v>200000</v>
@@ -10228,10 +10176,10 @@
         <v>이십만</v>
       </c>
       <c r="Y49" s="59" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="50" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G50"/>
       <c r="H50"/>
       <c r="Q50" s="48">
@@ -10239,19 +10187,19 @@
         <v>45</v>
       </c>
       <c r="R50" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S50" s="37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T50" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="U50" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V50" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W50" s="39">
         <v>150000</v>
@@ -10261,10 +10209,10 @@
         <v>일십오만</v>
       </c>
       <c r="Y50" s="59" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="51" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G51"/>
       <c r="H51"/>
       <c r="Q51" s="48">
@@ -10275,16 +10223,16 @@
         <v>32</v>
       </c>
       <c r="S51" s="37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T51" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U51" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V51" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W51" s="39">
         <v>600000</v>
@@ -10294,10 +10242,10 @@
         <v>육십만</v>
       </c>
       <c r="Y51" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="52" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G52"/>
       <c r="H52"/>
       <c r="Q52" s="48">
@@ -10308,16 +10256,16 @@
         <v>32</v>
       </c>
       <c r="S52" s="37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T52" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="U52" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V52" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W52" s="39">
         <v>3960600</v>
@@ -10327,10 +10275,10 @@
         <v>삼백구십육만육백</v>
       </c>
       <c r="Y52" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="53" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G53"/>
       <c r="H53"/>
       <c r="Q53" s="48">
@@ -10341,16 +10289,16 @@
         <v>32</v>
       </c>
       <c r="S53" s="37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T53" s="37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="U53" s="36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="V53" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W53" s="39">
         <v>2319400</v>
@@ -10360,10 +10308,10 @@
         <v>이백삼십일만구천사백</v>
       </c>
       <c r="Y53" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="54" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G54"/>
       <c r="H54"/>
       <c r="Q54" s="48">
@@ -10374,16 +10322,16 @@
         <v>32</v>
       </c>
       <c r="S54" s="37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="T54" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U54" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V54" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W54" s="39">
         <v>1000000</v>
@@ -10393,10 +10341,10 @@
         <v>일백만</v>
       </c>
       <c r="Y54" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="55" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G55"/>
       <c r="H55"/>
       <c r="Q55" s="48">
@@ -10407,16 +10355,16 @@
         <v>32</v>
       </c>
       <c r="S55" s="37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T55" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U55" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V55" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W55" s="38">
         <v>2000000</v>
@@ -10426,10 +10374,10 @@
         <v>이백만</v>
       </c>
       <c r="Y55" s="59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="56" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G56"/>
       <c r="H56"/>
       <c r="Q56" s="48">
@@ -10443,13 +10391,13 @@
         <v>64</v>
       </c>
       <c r="T56" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U56" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V56" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W56" s="39">
         <v>1340000</v>
@@ -10459,10 +10407,10 @@
         <v>일백삼십사만</v>
       </c>
       <c r="Y56" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="57" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G57"/>
       <c r="H57"/>
       <c r="Q57" s="48">
@@ -10476,13 +10424,13 @@
         <v>65</v>
       </c>
       <c r="T57" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U57" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V57" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W57" s="39">
         <v>890000</v>
@@ -10492,10 +10440,10 @@
         <v>팔십구만</v>
       </c>
       <c r="Y57" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="58" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G58"/>
       <c r="H58"/>
       <c r="Q58" s="48">
@@ -10506,16 +10454,16 @@
         <v>47</v>
       </c>
       <c r="S58" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="T58" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U58" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V58" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W58" s="39">
         <v>500000</v>
@@ -10525,10 +10473,10 @@
         <v>오십만</v>
       </c>
       <c r="Y58" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="59" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G59"/>
       <c r="H59"/>
       <c r="Q59" s="48">
@@ -10539,16 +10487,16 @@
         <v>47</v>
       </c>
       <c r="S59" s="37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="T59" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="U59" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V59" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W59" s="39">
         <v>2000000</v>
@@ -10558,10 +10506,10 @@
         <v>이백만</v>
       </c>
       <c r="Y59" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="60" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G60"/>
       <c r="H60"/>
       <c r="Q60" s="48">
@@ -10575,13 +10523,13 @@
         <v>50</v>
       </c>
       <c r="T60" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U60" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V60" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W60" s="39">
         <v>150000</v>
@@ -10591,10 +10539,10 @@
         <v>일십오만</v>
       </c>
       <c r="Y60" s="59" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="61" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G61"/>
       <c r="H61"/>
       <c r="Q61" s="48">
@@ -10605,16 +10553,16 @@
         <v>47</v>
       </c>
       <c r="S61" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="T61" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="U61" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V61" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W61" s="39">
         <v>200000</v>
@@ -10624,10 +10572,10 @@
         <v>이십만</v>
       </c>
       <c r="Y61" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="62" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G62"/>
       <c r="H62"/>
       <c r="Q62" s="48">
@@ -10638,16 +10586,16 @@
         <v>47</v>
       </c>
       <c r="S62" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="T62" s="37" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U62" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V62" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W62" s="38">
         <v>120000</v>
@@ -10657,10 +10605,10 @@
         <v>일십이만</v>
       </c>
       <c r="Y62" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="63" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G63"/>
       <c r="H63"/>
       <c r="Q63" s="48">
@@ -10671,16 +10619,16 @@
         <v>47</v>
       </c>
       <c r="S63" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="T63" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U63" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V63" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W63" s="38">
         <v>300000</v>
@@ -10690,10 +10638,10 @@
         <v>삼십만</v>
       </c>
       <c r="Y63" s="59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="64" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G64"/>
       <c r="H64"/>
       <c r="Q64" s="48">
@@ -10704,16 +10652,16 @@
         <v>47</v>
       </c>
       <c r="S64" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="T64" s="64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U64" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V64" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W64" s="42">
         <v>210000</v>
@@ -10723,10 +10671,10 @@
         <v>이십일만</v>
       </c>
       <c r="Y64" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="65" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G65"/>
       <c r="H65"/>
       <c r="Q65" s="48">
@@ -10743,10 +10691,10 @@
         <v>49</v>
       </c>
       <c r="U65" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V65" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W65" s="39">
         <v>150000</v>
@@ -10759,7 +10707,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G66"/>
       <c r="H66"/>
       <c r="Q66" s="48">
@@ -10776,10 +10724,10 @@
         <v>62</v>
       </c>
       <c r="U66" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V66" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W66" s="39">
         <v>275000</v>
@@ -10789,10 +10737,10 @@
         <v>이십칠만오천</v>
       </c>
       <c r="Y66" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="67" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:25" ht="17" x14ac:dyDescent="0.45">
       <c r="G67"/>
       <c r="H67"/>
       <c r="Q67" s="48">
@@ -10809,10 +10757,10 @@
         <v>61</v>
       </c>
       <c r="U67" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V67" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W67" s="39">
         <v>110000</v>
@@ -10822,28 +10770,28 @@
         <v>일십일만</v>
       </c>
       <c r="Y67" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="68" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:25" x14ac:dyDescent="0.45">
       <c r="Q68" s="54">
         <f>ROW()-ROW(표3[[#Headers],[idx]])</f>
         <v>63</v>
       </c>
       <c r="R68" s="36" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="S68" s="37" t="s">
-        <v>70</v>
+        <v>253</v>
       </c>
       <c r="T68" s="37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="U68" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V68" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W68" s="38">
         <v>200000</v>
@@ -10853,28 +10801,28 @@
         <v>이십만</v>
       </c>
       <c r="Y68" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="69" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:25" x14ac:dyDescent="0.45">
       <c r="Q69" s="50">
         <f>ROW()-ROW(표3[[#Headers],[idx]])</f>
         <v>64</v>
       </c>
-      <c r="R69" s="40" t="s">
-        <v>69</v>
+      <c r="R69" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="S69" s="41" t="s">
-        <v>70</v>
+        <v>253</v>
       </c>
       <c r="T69" s="41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U69" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V69" s="40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W69" s="43">
         <v>500000</v>
@@ -10884,7 +10832,7 @@
         <v>오십만</v>
       </c>
       <c r="Y69" s="65" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -10927,33 +10875,33 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.125" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.08203125" customWidth="1"/>
+    <col min="8" max="8" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>13</v>
@@ -10962,13 +10910,13 @@
         <v>21</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>64</v>
       </c>
@@ -10976,26 +10924,26 @@
         <v>64</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F4" s="16">
         <v>3300000</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J4" s="16">
         <f>SUMIFS((표1_5[금액(원)]), 표1_5[분류],표4[[#This Row],[항목]])</f>
         <v>5250000</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="17" t="s">
         <v>65</v>
       </c>
@@ -11003,383 +10951,383 @@
         <v>65</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F5" s="16">
         <v>1950000</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J5" s="16">
         <f>SUMIFS((표1_5[금액(원)]), 표1_5[분류],표4[[#This Row],[항목]])</f>
         <v>5180000</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>105</v>
-      </c>
       <c r="E6" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F6" s="25">
         <v>200000</v>
       </c>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" s="25">
         <v>100000</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="25">
         <v>100000</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J8" s="28">
         <f>J4-J5</f>
         <v>70000</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F9" s="25">
         <v>100000</v>
       </c>
       <c r="G9" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="17" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
-        <v>115</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="25">
         <v>100000</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F11" s="25">
         <v>30000</v>
       </c>
       <c r="G11" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="I11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
-        <v>120</v>
-      </c>
       <c r="C12" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F12" s="25">
         <v>750000</v>
       </c>
       <c r="G12" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="I12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
-        <v>123</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F13" s="25">
         <v>500000</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F14" s="25">
         <v>500000</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" s="17" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F15" s="25">
         <v>500000</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F16" s="25">
         <v>200000</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F17" s="25">
         <v>200000</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F18" s="25">
         <v>1000000</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F19" s="25">
         <v>300000</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F20" s="25">
         <v>50000</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F21" s="25">
         <v>50000</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F22" s="25">
         <v>500000</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
